--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 11:57:23</t>
+          <t>2025-08-27 12:32:11</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:32:11</t>
+          <t>2025-08-27 16:50:39</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:50:39</t>
+          <t>2025-08-27 17:04:34</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:04:34</t>
+          <t>2025-08-27 17:12:56</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:12:56</t>
+          <t>2025-08-27 17:59:16</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider_aggregated.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:59:16</t>
+          <t>2025-08-29 10:46:10</t>
         </is>
       </c>
     </row>
